--- a/Project 4 - Webscrape/UserAgentScraper.xlsx
+++ b/Project 4 - Webscrape/UserAgentScraper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://averroesdata-my.sharepoint.com/personal/ungkuadrian_averroesdata_com/Documents/Documents/My-Projects/Project 4 - Webscrape/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_0219E24ADB55AE0F62355476585DCE3A87476003" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C8C348-7561-47C3-BBD2-1A1F95C0AEF0}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_0219E24ADB55AE0F62355476585DCE3A87476003" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA90829-124F-4833-92FC-654F2F4DFB34}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
   <si>
     <t>User Agent</t>
   </si>
@@ -336,6 +336,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -393,6 +394,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -684,7 +689,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I50"/>
+      <selection activeCell="H4" sqref="H4:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,11 +764,8 @@
         <v>4</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 dtm_reg_debug 898_1711468096499'</v>
-      </c>
-      <c r="I4" t="s">
-        <v>93</v>
+        <f>"'"&amp;A4&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 dtm_reg_debug 898_1711468096499',</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -780,11 +782,8 @@
         <v>4</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 6.2; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.190 Safari/537.36'</v>
-      </c>
-      <c r="I5" t="s">
-        <v>93</v>
+        <f t="shared" ref="H5:H7" si="1">"'"&amp;A5&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 6.2; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.190 Safari/537.36',</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -801,11 +800,8 @@
         <v>4</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 dtm_reg_debug 898_1711468243249'</v>
-      </c>
-      <c r="I6" t="s">
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 dtm_reg_debug 898_1711468243249',</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -822,11 +818,8 @@
         <v>4</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 dtm_reg_debug 898_1711468285141'</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 dtm_reg_debug 898_1711468285141',</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -864,11 +857,8 @@
         <v>4</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 6.1) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/75.0.3770.100 Safari/537.36'</v>
-      </c>
-      <c r="I9" t="s">
-        <v>93</v>
+        <f t="shared" ref="H9:H10" si="2">"'"&amp;A9&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 6.1) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/75.0.3770.100 Safari/537.36',</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -885,11 +875,8 @@
         <v>4</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/122.0.0.0 Safari/537.36 dtm_reg_debug 2803_1711471625311'</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
+        <f t="shared" si="2"/>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/122.0.0.0 Safari/537.36 dtm_reg_debug 2803_1711471625311',</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1032,11 +1019,8 @@
         <v>4</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 AVG/116.0.0.0'</v>
-      </c>
-      <c r="I17" t="s">
-        <v>93</v>
+        <f t="shared" ref="H17:H18" si="3">"'"&amp;A17&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 AVG/116.0.0.0',</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1053,11 +1037,8 @@
         <v>4</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 6.1; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/100.0.4895.86 Safari/537.36'</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
+        <f t="shared" si="3"/>
+        <v>'Mozilla/5.0 (Windows NT 6.1; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/100.0.4895.86 Safari/537.36',</v>
       </c>
     </row>
     <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1116,11 +1097,8 @@
         <v>4</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 chromeOs'</v>
-      </c>
-      <c r="I21" t="s">
-        <v>93</v>
+        <f>"'"&amp;A21&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 chromeOs',</v>
       </c>
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1158,11 +1136,8 @@
         <v>4</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/77.0.3865.120 Safari/537.36'</v>
-      </c>
-      <c r="I23" t="s">
-        <v>93</v>
+        <f>"'"&amp;A23&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/77.0.3865.120 Safari/537.36',</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1200,11 +1175,8 @@
         <v>4</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 ribble-checkout-clitheroe'</v>
-      </c>
-      <c r="I25" t="s">
-        <v>93</v>
+        <f>"'"&amp;A25&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/123.0.0.0 Safari/537.36 ribble-checkout-clitheroe',</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1305,11 +1277,8 @@
         <v>4</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML  like Gecko) Chrome/122.0.0.0 Safari/537.36'</v>
-      </c>
-      <c r="I30" t="s">
-        <v>93</v>
+        <f t="shared" ref="H30:H31" si="4">"'"&amp;A30&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML  like Gecko) Chrome/122.0.0.0 Safari/537.36',</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1326,11 +1295,8 @@
         <v>4</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4736.0 Safari/537.36'</v>
-      </c>
-      <c r="I31" t="s">
-        <v>93</v>
+        <f t="shared" si="4"/>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/98.0.4736.0 Safari/537.36',</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1368,11 +1334,8 @@
         <v>4</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 6.3; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/85.0.4183.121 Safari/537.36'</v>
-      </c>
-      <c r="I33" t="s">
-        <v>93</v>
+        <f>"'"&amp;A33&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 6.3; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/85.0.4183.121 Safari/537.36',</v>
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1452,11 +1415,8 @@
         <v>4</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/122.0.0.0 Safari/537.36  -BugBounty-04712 -bugbounty-ICDC-20211206'</v>
-      </c>
-      <c r="I37" t="s">
-        <v>93</v>
+        <f>"'"&amp;A37&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/122.0.0.0 Safari/537.36  -BugBounty-04712 -bugbounty-ICDC-20211206',</v>
       </c>
     </row>
     <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1494,11 +1454,8 @@
         <v>4</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML  like Gecko) Chrome/90.0.4430.85 Safari/537.36'</v>
-      </c>
-      <c r="I39" t="s">
-        <v>93</v>
+        <f t="shared" ref="H39:H40" si="5">"'"&amp;A39&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML  like Gecko) Chrome/90.0.4430.85 Safari/537.36',</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -1515,11 +1472,8 @@
         <v>4</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.18 Safari/537.36; SiteKiosk 9.9 Build 6084; A44-44-113'</v>
-      </c>
-      <c r="I40" t="s">
-        <v>93</v>
+        <f t="shared" si="5"/>
+        <v>'Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/96.0.4664.18 Safari/537.36; SiteKiosk 9.9 Build 6084; A44-44-113',</v>
       </c>
     </row>
     <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1557,11 +1511,8 @@
         <v>4</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/122.0.0.0 Safari/537.3	8.54'</v>
-      </c>
-      <c r="I42" t="s">
-        <v>93</v>
+        <f>"'"&amp;A42&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/122.0.0.0 Safari/537.3	8.54',</v>
       </c>
     </row>
     <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1620,11 +1571,8 @@
         <v>4</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/53.0.2785.143 Safari/537.36'</v>
-      </c>
-      <c r="I45" t="s">
-        <v>93</v>
+        <f t="shared" ref="H45:H47" si="6">"'"&amp;A45&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/53.0.2785.143 Safari/537.36',</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -1641,11 +1589,8 @@
         <v>4</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 6.3) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4515.159 Safari/537.36'</v>
-      </c>
-      <c r="I46" t="s">
-        <v>93</v>
+        <f t="shared" si="6"/>
+        <v>'Mozilla/5.0 (Windows NT 6.3) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/92.0.4515.159 Safari/537.36',</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -1662,11 +1607,8 @@
         <v>4</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 6.3) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/100.0.4896.75 Safari/537.36'</v>
-      </c>
-      <c r="I47" t="s">
-        <v>93</v>
+        <f t="shared" si="6"/>
+        <v>'Mozilla/5.0 (Windows NT 6.3) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/100.0.4896.75 Safari/537.36',</v>
       </c>
     </row>
     <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1704,11 +1646,8 @@
         <v>4</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 6.2; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/100.0.4896.75 Safari/537.36'</v>
-      </c>
-      <c r="I49" t="s">
-        <v>93</v>
+        <f t="shared" ref="H49:H50" si="7">"'"&amp;A49&amp;"',"</f>
+        <v>'Mozilla/5.0 (Windows NT 6.2; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/100.0.4896.75 Safari/537.36',</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -1725,11 +1664,8 @@
         <v>4</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.152 Safari/537.36'</v>
-      </c>
-      <c r="I50" t="s">
-        <v>93</v>
+        <f t="shared" si="7"/>
+        <v>'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/88.0.4324.152 Safari/537.36',</v>
       </c>
     </row>
     <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
